--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H2">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>48.71630089837334</v>
+        <v>96.49377624785001</v>
       </c>
       <c r="R2">
-        <v>48.71630089837334</v>
+        <v>868.44398623065</v>
       </c>
       <c r="S2">
-        <v>0.009981013674081576</v>
+        <v>0.01643908599934268</v>
       </c>
       <c r="T2">
-        <v>0.009981013674081576</v>
+        <v>0.01643908599934268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H3">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>316.6591619637646</v>
+        <v>341.3567241364</v>
       </c>
       <c r="R3">
-        <v>316.6591619637646</v>
+        <v>3072.2105172276</v>
       </c>
       <c r="S3">
-        <v>0.06487724575346566</v>
+        <v>0.05815496877351412</v>
       </c>
       <c r="T3">
-        <v>0.06487724575346566</v>
+        <v>0.05815496877351412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H4">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I4">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J4">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>90.2644280620582</v>
+        <v>133.49184788558</v>
       </c>
       <c r="R4">
-        <v>90.2644280620582</v>
+        <v>1201.42663097022</v>
       </c>
       <c r="S4">
-        <v>0.0184934092728013</v>
+        <v>0.02274223326036653</v>
       </c>
       <c r="T4">
-        <v>0.0184934092728013</v>
+        <v>0.02274223326036654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H5">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I5">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J5">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>91.58403869120093</v>
+        <v>98.78437514764001</v>
       </c>
       <c r="R5">
-        <v>91.58403869120093</v>
+        <v>889.05937632876</v>
       </c>
       <c r="S5">
-        <v>0.01876377158461584</v>
+        <v>0.01682932207225714</v>
       </c>
       <c r="T5">
-        <v>0.01876377158461584</v>
+        <v>0.01682932207225714</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H6">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I6">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J6">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>88.77252325358772</v>
+        <v>100.18697552874</v>
       </c>
       <c r="R6">
-        <v>88.77252325358772</v>
+        <v>901.68277975866</v>
       </c>
       <c r="S6">
-        <v>0.01818774726605667</v>
+        <v>0.01706827497869526</v>
       </c>
       <c r="T6">
-        <v>0.01818774726605667</v>
+        <v>0.01706827497869526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H7">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I7">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J7">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>30.63256153865102</v>
+        <v>35.48406385454</v>
       </c>
       <c r="R7">
-        <v>30.63256153865102</v>
+        <v>319.35657469086</v>
       </c>
       <c r="S7">
-        <v>0.006276010492406457</v>
+        <v>0.006045214520495537</v>
       </c>
       <c r="T7">
-        <v>0.006276010492406457</v>
+        <v>0.006045214520495537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H8">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J8">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>36.06716226483165</v>
+        <v>72.28858844519333</v>
       </c>
       <c r="R8">
-        <v>36.06716226483165</v>
+        <v>650.5972960067401</v>
       </c>
       <c r="S8">
-        <v>0.007389453491174734</v>
+        <v>0.0123153882916682</v>
       </c>
       <c r="T8">
-        <v>0.007389453491174734</v>
+        <v>0.0123153882916682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H9">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J9">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>234.4389283787772</v>
+        <v>255.7283661561067</v>
       </c>
       <c r="R9">
-        <v>234.4389283787772</v>
+        <v>2301.55529540496</v>
       </c>
       <c r="S9">
-        <v>0.04803193400843243</v>
+        <v>0.04356696117803038</v>
       </c>
       <c r="T9">
-        <v>0.04803193400843243</v>
+        <v>0.04356696117803038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H10">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J10">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>66.82735991076002</v>
+        <v>100.0057996259013</v>
       </c>
       <c r="R10">
-        <v>66.82735991076002</v>
+        <v>900.052196633112</v>
       </c>
       <c r="S10">
-        <v>0.01369161411625853</v>
+        <v>0.01703740908906396</v>
       </c>
       <c r="T10">
-        <v>0.01369161411625853</v>
+        <v>0.01703740908906396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H11">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J11">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>67.80433496448946</v>
+        <v>74.00459716201067</v>
       </c>
       <c r="R11">
-        <v>67.80433496448946</v>
+        <v>666.041374458096</v>
       </c>
       <c r="S11">
-        <v>0.01389177712516292</v>
+        <v>0.01260773476175476</v>
       </c>
       <c r="T11">
-        <v>0.01389177712516292</v>
+        <v>0.01260773476175476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H12">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I12">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J12">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>65.72282668844009</v>
+        <v>75.055359248904</v>
       </c>
       <c r="R12">
-        <v>65.72282668844009</v>
+        <v>675.498233240136</v>
       </c>
       <c r="S12">
-        <v>0.01346531694278367</v>
+        <v>0.01278674701501056</v>
       </c>
       <c r="T12">
-        <v>0.01346531694278367</v>
+        <v>0.01278674701501056</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H13">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I13">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J13">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>22.67884767989144</v>
+        <v>26.58298791991733</v>
       </c>
       <c r="R13">
-        <v>22.67884767989144</v>
+        <v>239.246891279256</v>
       </c>
       <c r="S13">
-        <v>0.004646450667049063</v>
+        <v>0.004528789747149578</v>
       </c>
       <c r="T13">
-        <v>0.004646450667049063</v>
+        <v>0.004528789747149578</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H14">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I14">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J14">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>271.9055611996649</v>
+        <v>1.489574327261111</v>
       </c>
       <c r="R14">
-        <v>271.9055611996649</v>
+        <v>13.40616894535</v>
       </c>
       <c r="S14">
-        <v>0.05570811154266637</v>
+        <v>0.0002537701541015608</v>
       </c>
       <c r="T14">
-        <v>0.05570811154266637</v>
+        <v>0.0002537701541015608</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H15">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I15">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J15">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>1767.404042486485</v>
+        <v>5.269523408488889</v>
       </c>
       <c r="R15">
-        <v>1767.404042486485</v>
+        <v>47.4257106764</v>
       </c>
       <c r="S15">
-        <v>0.3621063912977366</v>
+        <v>0.0008977381946913736</v>
       </c>
       <c r="T15">
-        <v>0.3621063912977366</v>
+        <v>0.0008977381946913736</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H16">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I16">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J16">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>503.8026187534332</v>
+        <v>2.060713522064444</v>
       </c>
       <c r="R16">
-        <v>503.8026187534332</v>
+        <v>18.54642169858</v>
       </c>
       <c r="S16">
-        <v>0.1032192661201012</v>
+        <v>0.0003510718320548736</v>
       </c>
       <c r="T16">
-        <v>0.1032192661201012</v>
+        <v>0.0003510718320548736</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H17">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I17">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J17">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>511.1679043368071</v>
+        <v>1.524934300182222</v>
       </c>
       <c r="R17">
-        <v>511.1679043368071</v>
+        <v>13.72440870164</v>
       </c>
       <c r="S17">
-        <v>0.1047282685436334</v>
+        <v>0.0002597942279681644</v>
       </c>
       <c r="T17">
-        <v>0.1047282685436334</v>
+        <v>0.0002597942279681645</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H18">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I18">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J18">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>495.4756890251296</v>
+        <v>1.54658624086</v>
       </c>
       <c r="R18">
-        <v>495.4756890251296</v>
+        <v>13.91927616774</v>
       </c>
       <c r="S18">
-        <v>0.1015132416899071</v>
+        <v>0.0002634829437454432</v>
       </c>
       <c r="T18">
-        <v>0.1015132416899071</v>
+        <v>0.0002634829437454432</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="J19">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N19">
+        <v>26.955586</v>
+      </c>
+      <c r="O19">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P19">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q19">
+        <v>0.5477674581711112</v>
+      </c>
+      <c r="R19">
+        <v>4.92990712354</v>
+      </c>
+      <c r="S19">
+        <v>9.33199704961995E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.33199704961995E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H20">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>24.43393833333333</v>
+      </c>
+      <c r="N20">
+        <v>73.301815</v>
+      </c>
+      <c r="O20">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="P20">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="Q20">
+        <v>532.6302254441146</v>
+      </c>
+      <c r="R20">
+        <v>4793.672028997031</v>
+      </c>
+      <c r="S20">
+        <v>0.09074112779496668</v>
+      </c>
+      <c r="T20">
+        <v>0.09074112779496669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H21">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>86.43758666666668</v>
+      </c>
+      <c r="N21">
+        <v>259.31276</v>
+      </c>
+      <c r="O21">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="P21">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="Q21">
+        <v>1884.234569353236</v>
+      </c>
+      <c r="R21">
+        <v>16958.11112417913</v>
+      </c>
+      <c r="S21">
+        <v>0.3210061346233449</v>
+      </c>
+      <c r="T21">
+        <v>0.3210061346233449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="H19">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="I19">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="J19">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="N19">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="O19">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="P19">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="Q19">
-        <v>170.9728300908062</v>
-      </c>
-      <c r="R19">
-        <v>170.9728300908062</v>
-      </c>
-      <c r="S19">
-        <v>0.03502897641166641</v>
-      </c>
-      <c r="T19">
-        <v>0.03502897641166641</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H22">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I22">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J22">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.80250733333333</v>
+      </c>
+      <c r="N22">
+        <v>101.407522</v>
+      </c>
+      <c r="O22">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="P22">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="Q22">
+        <v>736.8536686927738</v>
+      </c>
+      <c r="R22">
+        <v>6631.683018234965</v>
+      </c>
+      <c r="S22">
+        <v>0.1255334934499629</v>
+      </c>
+      <c r="T22">
+        <v>0.125533493449963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H23">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I23">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J23">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>25.01395866666667</v>
+      </c>
+      <c r="N23">
+        <v>75.041876</v>
+      </c>
+      <c r="O23">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="P23">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="Q23">
+        <v>545.2739653394569</v>
+      </c>
+      <c r="R23">
+        <v>4907.465688055113</v>
+      </c>
+      <c r="S23">
+        <v>0.09289516855878729</v>
+      </c>
+      <c r="T23">
+        <v>0.09289516855878731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H24">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I24">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J24">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>25.369122</v>
+      </c>
+      <c r="N24">
+        <v>76.107366</v>
+      </c>
+      <c r="O24">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="P24">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="Q24">
+        <v>553.0160953113881</v>
+      </c>
+      <c r="R24">
+        <v>4977.144857802493</v>
+      </c>
+      <c r="S24">
+        <v>0.09421415041829868</v>
+      </c>
+      <c r="T24">
+        <v>0.09421415041829868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H25">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I25">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J25">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N25">
+        <v>26.955586</v>
+      </c>
+      <c r="O25">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P25">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q25">
+        <v>195.8663622197925</v>
+      </c>
+      <c r="R25">
+        <v>1762.797259978132</v>
+      </c>
+      <c r="S25">
+        <v>0.03336861814423305</v>
+      </c>
+      <c r="T25">
+        <v>0.03336861814423305</v>
       </c>
     </row>
   </sheetData>
